--- a/downloaded_files/EMCS201_Lecture-35139.xlsx
+++ b/downloaded_files/EMCS201_Lecture-35139.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Khaled Tolba Abdelazeem Abdelmaksoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد وائل فوزى سعد بكر ابو العز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
     <x:t>1240209</x:t>
@@ -236,7 +227,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +527,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -691,7 +682,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6658619213</x:v>
+        <x:v>45907.6657585648</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -723,7 +714,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6657585648</x:v>
+        <x:v>45907.6652479167</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +746,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6652479167</x:v>
+        <x:v>45909.8344551736</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +778,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.8344551736</x:v>
+        <x:v>45909.7958696412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +810,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.7958696412</x:v>
+        <x:v>45907.665372338</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +842,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665372338</x:v>
+        <x:v>45909.7866428588</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +874,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.7866428588</x:v>
+        <x:v>45909.5366359954</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -900,38 +891,6 @@
       <x:c r="R10" s="2" t="s"/>
       <x:c r="S10" s="2" t="s"/>
       <x:c r="T10" s="2" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:20">
-      <x:c r="A11" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E11" s="3">
-        <x:v>45909.5366359954</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s"/>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
-      <x:c r="I11" s="2" t="s"/>
-      <x:c r="J11" s="2" t="s"/>
-      <x:c r="K11" s="2" t="s"/>
-      <x:c r="L11" s="2" t="s"/>
-      <x:c r="M11" s="2" t="s"/>
-      <x:c r="N11" s="2" t="s"/>
-      <x:c r="O11" s="2" t="s"/>
-      <x:c r="P11" s="2" t="s"/>
-      <x:c r="Q11" s="2" t="s"/>
-      <x:c r="R11" s="2" t="s"/>
-      <x:c r="S11" s="2" t="s"/>
-      <x:c r="T11" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
